--- a/master demographics log.xlsx
+++ b/master demographics log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisabeth/Desktop/UMASS/BKonline data/BK-Online-Replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41921405-0B77-A446-9DFF-9B35D9ECEC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3F545-503B-E549-BB86-D5DBB781915E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="26120" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="766">
   <si>
     <t>Experimenter</t>
   </si>
@@ -2318,6 +2318,21 @@
   </si>
   <si>
     <t xml:space="preserve">bkp056 </t>
+  </si>
+  <si>
+    <t>blg094</t>
+  </si>
+  <si>
+    <t>blg095</t>
+  </si>
+  <si>
+    <t>blg096</t>
+  </si>
+  <si>
+    <t>blg097</t>
+  </si>
+  <si>
+    <t>neeck to check michelleklemas@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -2503,7 +2518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2564,6 +2579,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2878,11 +2894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y304"/>
+  <dimension ref="A1:Y312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A294" sqref="A294"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L264" sqref="L264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17399,8 +17415,8 @@
       <c r="B259" s="26">
         <v>45005</v>
       </c>
-      <c r="C259" t="s">
-        <v>401</v>
+      <c r="C259" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="D259" t="s">
         <v>420</v>
@@ -17442,155 +17458,106 @@
         <v>70</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="B260" s="28">
-        <v>44866</v>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A260" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="B260" s="34">
+        <v>45045</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E260" t="s">
-        <v>180</v>
+        <v>642</v>
       </c>
       <c r="F260">
-        <f>DATEDIF(L260,DATE(2022,12,10),"Y")</f>
-        <v>10</v>
-      </c>
-      <c r="G260" t="s">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="J260" t="s">
         <v>374</v>
       </c>
-      <c r="L260" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="M260" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="N260" s="30" t="s">
+      <c r="L260" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="M260" t="s">
+        <v>30</v>
+      </c>
+      <c r="N260" t="s">
         <v>37</v>
       </c>
-      <c r="O260" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>46</v>
-      </c>
-      <c r="T260" t="s">
-        <v>46</v>
-      </c>
-      <c r="V260" t="s">
-        <v>47</v>
-      </c>
-      <c r="W260" t="s">
-        <v>47</v>
-      </c>
-      <c r="X260">
-        <v>9</v>
-      </c>
-      <c r="Y260" s="30" t="s">
-        <v>648</v>
-      </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>649</v>
-      </c>
-      <c r="B261" s="26">
-        <v>44872</v>
-      </c>
-      <c r="C261" t="s">
-        <v>650</v>
+      <c r="A261" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="B261" s="34">
+        <v>45050</v>
+      </c>
+      <c r="C261" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="D261" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E261" t="s">
-        <v>180</v>
+        <v>642</v>
       </c>
       <c r="F261">
-        <v>9</v>
-      </c>
-      <c r="G261" t="s">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="J261" t="s">
         <v>374</v>
       </c>
-      <c r="K261" t="s">
-        <v>651</v>
-      </c>
       <c r="L261" s="26">
-        <v>41538</v>
+        <v>43167</v>
       </c>
       <c r="M261" t="s">
-        <v>646</v>
+        <v>30</v>
       </c>
       <c r="N261" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O261" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q261" t="s">
         <v>46</v>
       </c>
-      <c r="S261" t="s">
-        <v>45</v>
-      </c>
-      <c r="T261" t="s">
-        <v>46</v>
-      </c>
-      <c r="V261" t="s">
-        <v>47</v>
-      </c>
-      <c r="W261" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>652</v>
-      </c>
-      <c r="B262" s="26">
-        <v>44872</v>
-      </c>
-      <c r="C262" t="s">
-        <v>650</v>
+      <c r="A262" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="B262" s="34">
+        <v>45052</v>
+      </c>
+      <c r="C262" s="29" t="s">
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E262" t="s">
-        <v>180</v>
+        <v>642</v>
       </c>
       <c r="F262">
-        <v>10</v>
-      </c>
-      <c r="G262" t="s">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="J262" t="s">
         <v>374</v>
       </c>
-      <c r="K262" s="20" t="s">
-        <v>653</v>
-      </c>
       <c r="L262" s="26">
-        <v>40953</v>
+        <v>43024</v>
       </c>
       <c r="M262" t="s">
         <v>30</v>
       </c>
       <c r="N262" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="O262" t="s">
         <v>240</v>
@@ -17598,323 +17565,71 @@
       <c r="Q262" t="s">
         <v>46</v>
       </c>
-      <c r="T262" t="s">
-        <v>46</v>
-      </c>
-      <c r="V262" t="s">
-        <v>47</v>
-      </c>
-      <c r="W262" t="s">
-        <v>47</v>
-      </c>
-      <c r="X262">
-        <v>7</v>
-      </c>
-      <c r="Y262">
-        <v>3</v>
-      </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>654</v>
-      </c>
-      <c r="B263" s="26">
-        <v>44879</v>
-      </c>
-      <c r="C263" t="s">
-        <v>650</v>
+      <c r="A263" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="B263" s="34">
+        <v>45057</v>
+      </c>
+      <c r="C263" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="D263" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E263" t="s">
-        <v>180</v>
+        <v>642</v>
       </c>
       <c r="F263">
-        <v>10</v>
-      </c>
-      <c r="G263" t="s">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="J263" t="s">
         <v>374</v>
       </c>
-      <c r="K263" t="s">
-        <v>655</v>
-      </c>
       <c r="L263" s="26">
-        <v>41161</v>
+        <v>43165</v>
       </c>
       <c r="M263" t="s">
         <v>30</v>
       </c>
       <c r="N263" t="s">
-        <v>656</v>
+        <v>37</v>
       </c>
       <c r="O263" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q263" t="s">
-        <v>47</v>
-      </c>
-      <c r="R263" t="s">
-        <v>79</v>
-      </c>
-      <c r="T263" t="s">
-        <v>46</v>
-      </c>
-      <c r="V263" t="s">
-        <v>47</v>
-      </c>
-      <c r="W263" t="s">
-        <v>47</v>
-      </c>
-      <c r="X263">
-        <v>3</v>
-      </c>
-      <c r="Y263">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>657</v>
-      </c>
-      <c r="B264" s="26">
-        <v>44880</v>
-      </c>
-      <c r="C264" t="s">
-        <v>415</v>
-      </c>
-      <c r="D264" t="s">
-        <v>427</v>
-      </c>
-      <c r="E264" t="s">
-        <v>180</v>
-      </c>
-      <c r="F264">
-        <v>9</v>
-      </c>
-      <c r="G264" t="s">
-        <v>428</v>
-      </c>
-      <c r="J264" t="s">
-        <v>374</v>
-      </c>
-      <c r="K264" t="s">
-        <v>658</v>
-      </c>
-      <c r="L264" s="26">
-        <v>41488</v>
-      </c>
-      <c r="M264" t="s">
-        <v>659</v>
-      </c>
-      <c r="N264" t="s">
-        <v>660</v>
-      </c>
-      <c r="O264" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q264" t="s">
-        <v>46</v>
-      </c>
-      <c r="T264" t="s">
-        <v>46</v>
-      </c>
-      <c r="V264" t="s">
-        <v>47</v>
-      </c>
-      <c r="W264" t="s">
-        <v>46</v>
-      </c>
+      <c r="B264" s="26"/>
+      <c r="C264" s="29"/>
+      <c r="L264" s="26"/>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>661</v>
-      </c>
-      <c r="B265" s="26">
-        <v>44883</v>
-      </c>
-      <c r="C265" t="s">
-        <v>401</v>
-      </c>
-      <c r="D265" t="s">
-        <v>427</v>
-      </c>
-      <c r="E265" t="s">
-        <v>180</v>
-      </c>
-      <c r="F265">
-        <v>10</v>
-      </c>
-      <c r="G265" t="s">
-        <v>428</v>
-      </c>
-      <c r="J265" t="s">
-        <v>173</v>
-      </c>
-      <c r="K265" t="s">
-        <v>662</v>
-      </c>
-      <c r="L265" s="26">
-        <v>41021</v>
-      </c>
-      <c r="M265" t="s">
-        <v>40</v>
-      </c>
-      <c r="N265" t="s">
-        <v>37</v>
-      </c>
-      <c r="O265" t="s">
-        <v>239</v>
-      </c>
-      <c r="P265" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q265" t="s">
-        <v>326</v>
-      </c>
-      <c r="R265" t="s">
-        <v>47</v>
-      </c>
-      <c r="T265" t="s">
-        <v>46</v>
-      </c>
-      <c r="V265" t="s">
-        <v>47</v>
-      </c>
-      <c r="W265" t="s">
-        <v>46</v>
-      </c>
+      <c r="B265" s="26"/>
+      <c r="L265" s="26"/>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>664</v>
-      </c>
-      <c r="B266" s="26">
-        <v>44884</v>
-      </c>
-      <c r="C266" t="s">
-        <v>665</v>
-      </c>
-      <c r="D266" t="s">
-        <v>427</v>
-      </c>
-      <c r="E266" t="s">
-        <v>180</v>
-      </c>
-      <c r="F266">
-        <v>10</v>
-      </c>
-      <c r="G266" t="s">
-        <v>428</v>
-      </c>
-      <c r="J266" t="s">
-        <v>374</v>
-      </c>
-      <c r="K266" t="s">
-        <v>666</v>
-      </c>
-      <c r="L266" s="26">
-        <v>41169</v>
-      </c>
-      <c r="M266" t="s">
-        <v>30</v>
-      </c>
-      <c r="N266" t="s">
-        <v>37</v>
-      </c>
-      <c r="O266" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q266" t="s">
-        <v>46</v>
-      </c>
-      <c r="T266" t="s">
-        <v>46</v>
-      </c>
-      <c r="V266" t="s">
-        <v>47</v>
-      </c>
-      <c r="W266" t="s">
-        <v>47</v>
-      </c>
-      <c r="X266">
-        <v>4</v>
-      </c>
-      <c r="Y266">
-        <v>6</v>
-      </c>
+      <c r="B266" s="26"/>
+      <c r="L266" s="26"/>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>667</v>
-      </c>
-      <c r="B267" s="26">
-        <v>44886</v>
-      </c>
-      <c r="C267" t="s">
-        <v>371</v>
-      </c>
-      <c r="D267" t="s">
-        <v>427</v>
-      </c>
-      <c r="E267" t="s">
-        <v>180</v>
-      </c>
-      <c r="F267">
-        <v>9</v>
-      </c>
-      <c r="G267" t="s">
-        <v>428</v>
-      </c>
-      <c r="J267" t="s">
-        <v>374</v>
-      </c>
-      <c r="K267" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="L267" s="26">
-        <v>41328</v>
-      </c>
-      <c r="M267" t="s">
-        <v>40</v>
-      </c>
-      <c r="N267" t="s">
-        <v>37</v>
-      </c>
-      <c r="O267" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>46</v>
-      </c>
-      <c r="T267" t="s">
-        <v>46</v>
-      </c>
-      <c r="V267" t="s">
-        <v>47</v>
-      </c>
-      <c r="W267" t="s">
-        <v>47</v>
-      </c>
-      <c r="X267">
-        <v>8</v>
-      </c>
-      <c r="Y267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>669</v>
-      </c>
-      <c r="B268" s="26">
-        <v>44888</v>
-      </c>
-      <c r="C268" t="s">
-        <v>355</v>
+      <c r="B267" s="26"/>
+      <c r="L267" s="26"/>
+    </row>
+    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="B268" s="28">
+        <v>44866</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D268" t="s">
         <v>427</v>
@@ -17923,37 +17638,29 @@
         <v>180</v>
       </c>
       <c r="F268">
+        <f>DATEDIF(L268,DATE(2022,12,10),"Y")</f>
         <v>10</v>
       </c>
       <c r="G268" t="s">
         <v>428</v>
       </c>
       <c r="J268" t="s">
-        <v>173</v>
-      </c>
-      <c r="K268" t="s">
-        <v>670</v>
-      </c>
-      <c r="L268" s="26">
-        <v>41092</v>
-      </c>
-      <c r="M268" t="s">
-        <v>30</v>
-      </c>
-      <c r="N268" t="s">
+        <v>374</v>
+      </c>
+      <c r="L268" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="M268" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="N268" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="O268" t="s">
-        <v>53</v>
-      </c>
-      <c r="P268" t="s">
-        <v>223</v>
+      <c r="O268" s="30" t="s">
+        <v>647</v>
       </c>
       <c r="Q268" t="s">
-        <v>47</v>
-      </c>
-      <c r="R268" t="s">
-        <v>671</v>
+        <v>46</v>
       </c>
       <c r="T268" t="s">
         <v>46</v>
@@ -17962,18 +17669,24 @@
         <v>47</v>
       </c>
       <c r="W268" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X268">
+        <v>9</v>
+      </c>
+      <c r="Y268" s="30" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="B269" s="26">
-        <v>44900</v>
+        <v>44872</v>
       </c>
       <c r="C269" t="s">
-        <v>371</v>
+        <v>650</v>
       </c>
       <c r="D269" t="s">
         <v>427</v>
@@ -17982,7 +17695,7 @@
         <v>180</v>
       </c>
       <c r="F269">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G269" t="s">
         <v>428</v>
@@ -17990,46 +17703,46 @@
       <c r="J269" t="s">
         <v>374</v>
       </c>
+      <c r="K269" t="s">
+        <v>651</v>
+      </c>
       <c r="L269" s="26">
-        <v>40939</v>
+        <v>41538</v>
       </c>
       <c r="M269" t="s">
-        <v>40</v>
+        <v>646</v>
       </c>
       <c r="N269" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="O269" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q269" t="s">
         <v>46</v>
       </c>
+      <c r="S269" t="s">
+        <v>45</v>
+      </c>
       <c r="T269" t="s">
         <v>46</v>
       </c>
       <c r="V269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W269" t="s">
-        <v>47</v>
-      </c>
-      <c r="X269">
-        <v>6</v>
-      </c>
-      <c r="Y269">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B270" s="26">
-        <v>44900</v>
+        <v>44872</v>
       </c>
       <c r="C270" t="s">
-        <v>371</v>
+        <v>650</v>
       </c>
       <c r="D270" t="s">
         <v>427</v>
@@ -18038,25 +17751,25 @@
         <v>180</v>
       </c>
       <c r="F270">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G270" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J270" t="s">
         <v>374</v>
       </c>
-      <c r="K270" t="s">
-        <v>674</v>
+      <c r="K270" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="L270" s="26">
-        <v>42229</v>
+        <v>40953</v>
       </c>
       <c r="M270" t="s">
         <v>30</v>
       </c>
       <c r="N270" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="O270" t="s">
         <v>240</v>
@@ -18074,21 +17787,21 @@
         <v>47</v>
       </c>
       <c r="X270">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y270">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="B271" s="26">
-        <v>44901</v>
+        <v>44879</v>
       </c>
       <c r="C271" t="s">
-        <v>415</v>
+        <v>650</v>
       </c>
       <c r="D271" t="s">
         <v>427</v>
@@ -18097,7 +17810,7 @@
         <v>180</v>
       </c>
       <c r="F271">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G271" t="s">
         <v>428</v>
@@ -18106,22 +17819,25 @@
         <v>374</v>
       </c>
       <c r="K271" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="L271" s="26">
-        <v>41437</v>
+        <v>41161</v>
       </c>
       <c r="M271" t="s">
         <v>30</v>
       </c>
       <c r="N271" t="s">
-        <v>398</v>
+        <v>656</v>
       </c>
       <c r="O271" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q271" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="R271" t="s">
+        <v>79</v>
       </c>
       <c r="T271" t="s">
         <v>46</v>
@@ -18133,21 +17849,21 @@
         <v>47</v>
       </c>
       <c r="X271">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y271">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="B272" s="26">
-        <v>44902</v>
+        <v>44880</v>
       </c>
       <c r="C272" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="D272" t="s">
         <v>427</v>
@@ -18156,25 +17872,28 @@
         <v>180</v>
       </c>
       <c r="F272">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G272" t="s">
         <v>428</v>
       </c>
       <c r="J272" t="s">
-        <v>173</v>
+        <v>374</v>
+      </c>
+      <c r="K272" t="s">
+        <v>658</v>
       </c>
       <c r="L272" s="26">
-        <v>40833</v>
+        <v>41488</v>
       </c>
       <c r="M272" t="s">
-        <v>30</v>
+        <v>659</v>
       </c>
       <c r="N272" t="s">
-        <v>398</v>
+        <v>660</v>
       </c>
       <c r="O272" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q272" t="s">
         <v>46</v>
@@ -18186,21 +17905,15 @@
         <v>47</v>
       </c>
       <c r="W272" t="s">
-        <v>47</v>
-      </c>
-      <c r="X272">
-        <v>10</v>
-      </c>
-      <c r="Y272">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="B273" s="26">
-        <v>44903</v>
+        <v>44883</v>
       </c>
       <c r="C273" t="s">
         <v>401</v>
@@ -18217,32 +17930,32 @@
       <c r="G273" t="s">
         <v>428</v>
       </c>
-      <c r="H273" t="s">
-        <v>679</v>
-      </c>
-      <c r="I273" t="s">
-        <v>680</v>
-      </c>
       <c r="J273" t="s">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="K273" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="L273" s="26">
-        <v>40906</v>
+        <v>41021</v>
       </c>
       <c r="M273" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N273" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
       <c r="O273" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="P273" t="s">
+        <v>663</v>
       </c>
       <c r="Q273" t="s">
-        <v>46</v>
+        <v>326</v>
+      </c>
+      <c r="R273" t="s">
+        <v>47</v>
       </c>
       <c r="T273" t="s">
         <v>46</v>
@@ -18251,24 +17964,18 @@
         <v>47</v>
       </c>
       <c r="W273" t="s">
-        <v>47</v>
-      </c>
-      <c r="X273">
-        <v>6</v>
-      </c>
-      <c r="Y273">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="B274" s="26">
-        <v>44904</v>
+        <v>44884</v>
       </c>
       <c r="C274" t="s">
-        <v>401</v>
+        <v>665</v>
       </c>
       <c r="D274" t="s">
         <v>427</v>
@@ -18277,7 +17984,7 @@
         <v>180</v>
       </c>
       <c r="F274">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G274" t="s">
         <v>428</v>
@@ -18286,16 +17993,16 @@
         <v>374</v>
       </c>
       <c r="K274" t="s">
-        <v>683</v>
-      </c>
-      <c r="L274" s="31">
-        <v>41397</v>
+        <v>666</v>
+      </c>
+      <c r="L274" s="26">
+        <v>41169</v>
       </c>
       <c r="M274" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N274" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="O274" t="s">
         <v>240</v>
@@ -18310,15 +18017,21 @@
         <v>47</v>
       </c>
       <c r="W274" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X274">
+        <v>4</v>
+      </c>
+      <c r="Y274">
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B275" s="26">
-        <v>44905</v>
+        <v>44886</v>
       </c>
       <c r="C275" t="s">
         <v>371</v>
@@ -18330,28 +18043,28 @@
         <v>180</v>
       </c>
       <c r="F275">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G275" t="s">
         <v>428</v>
       </c>
       <c r="J275" t="s">
-        <v>173</v>
-      </c>
-      <c r="K275" t="s">
-        <v>685</v>
+        <v>374</v>
+      </c>
+      <c r="K275" s="20" t="s">
+        <v>668</v>
       </c>
       <c r="L275" s="26">
-        <v>40687</v>
+        <v>41328</v>
       </c>
       <c r="M275" t="s">
         <v>40</v>
       </c>
       <c r="N275" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="O275" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q275" t="s">
         <v>46</v>
@@ -18363,18 +18076,24 @@
         <v>47</v>
       </c>
       <c r="W275" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X275">
+        <v>8</v>
+      </c>
+      <c r="Y275">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="B276" s="26">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="C276" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="D276" t="s">
         <v>427</v>
@@ -18389,28 +18108,31 @@
         <v>428</v>
       </c>
       <c r="J276" t="s">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="K276" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="L276" s="26">
-        <v>41105</v>
+        <v>41092</v>
       </c>
       <c r="M276" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N276" t="s">
-        <v>688</v>
+        <v>37</v>
       </c>
       <c r="O276" t="s">
-        <v>240</v>
+        <v>53</v>
+      </c>
+      <c r="P276" t="s">
+        <v>223</v>
       </c>
       <c r="Q276" t="s">
         <v>47</v>
       </c>
       <c r="R276" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="T276" t="s">
         <v>46</v>
@@ -18424,13 +18146,13 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="B277" s="26">
-        <v>44910</v>
+        <v>44900</v>
       </c>
       <c r="C277" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="D277" t="s">
         <v>427</v>
@@ -18447,17 +18169,14 @@
       <c r="J277" t="s">
         <v>374</v>
       </c>
-      <c r="K277" t="s">
-        <v>691</v>
-      </c>
       <c r="L277" s="26">
-        <v>41054</v>
+        <v>40939</v>
       </c>
       <c r="M277" t="s">
         <v>40</v>
       </c>
       <c r="N277" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="O277" t="s">
         <v>240</v>
@@ -18466,30 +18185,27 @@
         <v>46</v>
       </c>
       <c r="T277" t="s">
-        <v>47</v>
-      </c>
-      <c r="U277" t="s">
-        <v>692</v>
+        <v>46</v>
       </c>
       <c r="V277" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W277" t="s">
         <v>47</v>
       </c>
       <c r="X277">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y277">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>757</v>
+        <v>673</v>
       </c>
       <c r="B278" s="26">
-        <v>44912</v>
+        <v>44900</v>
       </c>
       <c r="C278" t="s">
         <v>371</v>
@@ -18501,25 +18217,25 @@
         <v>180</v>
       </c>
       <c r="F278">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G278" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="J278" t="s">
         <v>374</v>
       </c>
       <c r="K278" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="L278" s="26">
-        <v>40794</v>
+        <v>42229</v>
       </c>
       <c r="M278" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N278" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="O278" t="s">
         <v>240</v>
@@ -18537,21 +18253,21 @@
         <v>47</v>
       </c>
       <c r="X278">
-        <v>9</v>
-      </c>
-      <c r="Y278" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="Y278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="B279" s="26">
-        <v>44914</v>
+        <v>44901</v>
       </c>
       <c r="C279" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="D279" t="s">
         <v>427</v>
@@ -18569,25 +18285,22 @@
         <v>374</v>
       </c>
       <c r="K279" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="L279" s="26">
-        <v>41603</v>
+        <v>41437</v>
       </c>
       <c r="M279" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N279" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O279" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q279" t="s">
-        <v>47</v>
-      </c>
-      <c r="R279" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="T279" t="s">
         <v>46</v>
@@ -18596,18 +18309,24 @@
         <v>47</v>
       </c>
       <c r="W279" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X279">
+        <v>8</v>
+      </c>
+      <c r="Y279">
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="B280" s="26">
-        <v>44914</v>
+        <v>44902</v>
       </c>
       <c r="C280" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D280" t="s">
         <v>427</v>
@@ -18622,28 +18341,22 @@
         <v>428</v>
       </c>
       <c r="J280" t="s">
-        <v>374</v>
-      </c>
-      <c r="K280" t="s">
-        <v>697</v>
+        <v>173</v>
       </c>
       <c r="L280" s="26">
-        <v>40772</v>
+        <v>40833</v>
       </c>
       <c r="M280" t="s">
         <v>30</v>
       </c>
       <c r="N280" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="O280" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q280" t="s">
-        <v>47</v>
-      </c>
-      <c r="R280" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="T280" t="s">
         <v>46</v>
@@ -18655,21 +18368,21 @@
         <v>47</v>
       </c>
       <c r="X280">
-        <v>6</v>
-      </c>
-      <c r="Y280" t="s">
-        <v>190</v>
+        <v>10</v>
+      </c>
+      <c r="Y280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="B281" s="26">
-        <v>44928</v>
+        <v>44903</v>
       </c>
       <c r="C281" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D281" t="s">
         <v>427</v>
@@ -18678,28 +18391,34 @@
         <v>180</v>
       </c>
       <c r="F281">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G281" t="s">
-        <v>443</v>
+        <v>428</v>
+      </c>
+      <c r="H281" t="s">
+        <v>679</v>
+      </c>
+      <c r="I281" t="s">
+        <v>680</v>
       </c>
       <c r="J281" t="s">
         <v>374</v>
       </c>
       <c r="K281" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="L281" s="26">
-        <v>41957</v>
+        <v>40906</v>
       </c>
       <c r="M281" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N281" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="O281" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q281" t="s">
         <v>46</v>
@@ -18711,18 +18430,24 @@
         <v>47</v>
       </c>
       <c r="W281" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="X281">
+        <v>6</v>
+      </c>
+      <c r="Y281">
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="B282" s="26">
-        <v>44930</v>
+        <v>44904</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="D282" t="s">
         <v>427</v>
@@ -18731,25 +18456,25 @@
         <v>180</v>
       </c>
       <c r="F282">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G282" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J282" t="s">
         <v>374</v>
       </c>
       <c r="K282" t="s">
-        <v>701</v>
-      </c>
-      <c r="L282" s="26">
-        <v>42051</v>
+        <v>683</v>
+      </c>
+      <c r="L282" s="31">
+        <v>41397</v>
       </c>
       <c r="M282" t="s">
         <v>40</v>
       </c>
       <c r="N282" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="O282" t="s">
         <v>240</v>
@@ -18769,13 +18494,13 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="B283" s="26">
-        <v>44930</v>
+        <v>44905</v>
       </c>
       <c r="C283" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="D283" t="s">
         <v>427</v>
@@ -18784,28 +18509,28 @@
         <v>180</v>
       </c>
       <c r="F283">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G283" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J283" t="s">
         <v>173</v>
       </c>
       <c r="K283" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="L283" s="26">
-        <v>42630</v>
+        <v>40687</v>
       </c>
       <c r="M283" t="s">
         <v>40</v>
       </c>
       <c r="N283" t="s">
-        <v>398</v>
+        <v>119</v>
       </c>
       <c r="O283" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q283" t="s">
         <v>46</v>
@@ -18822,13 +18547,13 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="B284" s="26">
-        <v>44931</v>
+        <v>44910</v>
       </c>
       <c r="C284" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="D284" t="s">
         <v>427</v>
@@ -18837,63 +18562,54 @@
         <v>180</v>
       </c>
       <c r="F284">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G284" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J284" t="s">
-        <v>173</v>
-      </c>
-      <c r="K284" s="20" t="s">
-        <v>416</v>
+        <v>374</v>
+      </c>
+      <c r="K284" t="s">
+        <v>687</v>
       </c>
       <c r="L284" s="26">
-        <v>41903</v>
+        <v>41105</v>
       </c>
       <c r="M284" t="s">
         <v>40</v>
       </c>
       <c r="N284" t="s">
-        <v>52</v>
+        <v>688</v>
       </c>
       <c r="O284" t="s">
-        <v>53</v>
-      </c>
-      <c r="P284" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="Q284" t="s">
         <v>47</v>
       </c>
       <c r="R284" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="T284" t="s">
         <v>46</v>
       </c>
       <c r="V284" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W284" t="s">
-        <v>47</v>
-      </c>
-      <c r="X284">
-        <v>3</v>
-      </c>
-      <c r="Y284" t="s">
-        <v>706</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="B285" s="26">
-        <v>44931</v>
+        <v>44910</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="D285" t="s">
         <v>427</v>
@@ -18902,60 +18618,60 @@
         <v>180</v>
       </c>
       <c r="F285">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>428</v>
+      </c>
+      <c r="J285" t="s">
+        <v>374</v>
+      </c>
+      <c r="K285" t="s">
+        <v>691</v>
+      </c>
+      <c r="L285" s="26">
+        <v>41054</v>
+      </c>
+      <c r="M285" t="s">
+        <v>40</v>
+      </c>
+      <c r="N285" t="s">
+        <v>159</v>
+      </c>
+      <c r="O285" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>46</v>
+      </c>
+      <c r="T285" t="s">
+        <v>47</v>
+      </c>
+      <c r="U285" t="s">
+        <v>692</v>
+      </c>
+      <c r="V285" t="s">
+        <v>47</v>
+      </c>
+      <c r="W285" t="s">
+        <v>47</v>
+      </c>
+      <c r="X285">
         <v>7</v>
       </c>
-      <c r="G285" t="s">
-        <v>443</v>
-      </c>
-      <c r="J285" t="s">
-        <v>173</v>
-      </c>
-      <c r="L285" s="26">
-        <v>42616</v>
-      </c>
-      <c r="M285" t="s">
-        <v>30</v>
-      </c>
-      <c r="N285" t="s">
-        <v>52</v>
-      </c>
-      <c r="O285" t="s">
-        <v>53</v>
-      </c>
-      <c r="P285" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>47</v>
-      </c>
-      <c r="R285" t="s">
-        <v>709</v>
-      </c>
-      <c r="T285" t="s">
-        <v>46</v>
-      </c>
-      <c r="V285" t="s">
-        <v>47</v>
-      </c>
-      <c r="W285" t="s">
-        <v>47</v>
-      </c>
-      <c r="X285">
-        <v>4</v>
-      </c>
       <c r="Y285">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="B286" s="26">
-        <v>44931</v>
+        <v>44912</v>
       </c>
       <c r="C286" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="D286" t="s">
         <v>427</v>
@@ -18964,25 +18680,25 @@
         <v>180</v>
       </c>
       <c r="F286">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G286" t="s">
         <v>428</v>
       </c>
       <c r="J286" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="K286" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="L286" s="26">
-        <v>41024</v>
+        <v>40794</v>
       </c>
       <c r="M286" t="s">
         <v>40</v>
       </c>
       <c r="N286" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="O286" t="s">
         <v>240</v>
@@ -18997,18 +18713,24 @@
         <v>47</v>
       </c>
       <c r="W286" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X286">
+        <v>9</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B287" s="26">
-        <v>44932</v>
+        <v>44914</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
         <v>427</v>
@@ -19017,37 +18739,37 @@
         <v>180</v>
       </c>
       <c r="F287">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G287" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J287" t="s">
         <v>374</v>
       </c>
       <c r="K287" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="L287" s="26">
-        <v>42490</v>
+        <v>41603</v>
       </c>
       <c r="M287" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N287" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="O287" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q287" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="R287" t="s">
+        <v>60</v>
       </c>
       <c r="T287" t="s">
-        <v>47</v>
-      </c>
-      <c r="U287" t="s">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="V287" t="s">
         <v>47</v>
@@ -19058,13 +18780,13 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="B288" s="26">
-        <v>44936</v>
+        <v>44914</v>
       </c>
       <c r="C288" t="s">
-        <v>715</v>
+        <v>355</v>
       </c>
       <c r="D288" t="s">
         <v>427</v>
@@ -19073,31 +18795,34 @@
         <v>180</v>
       </c>
       <c r="F288">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G288" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J288" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="K288" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="L288" s="26">
-        <v>42504</v>
+        <v>40772</v>
       </c>
       <c r="M288" t="s">
         <v>30</v>
       </c>
       <c r="N288" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="O288" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q288" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="R288" t="s">
+        <v>60</v>
       </c>
       <c r="T288" t="s">
         <v>46</v>
@@ -19106,15 +18831,21 @@
         <v>47</v>
       </c>
       <c r="W288" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X288">
+        <v>6</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="B289" s="26">
-        <v>44936</v>
+        <v>44928</v>
       </c>
       <c r="C289" t="s">
         <v>415</v>
@@ -19126,25 +18857,28 @@
         <v>180</v>
       </c>
       <c r="F289">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G289" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="J289" t="s">
-        <v>173</v>
+        <v>374</v>
+      </c>
+      <c r="K289" t="s">
+        <v>699</v>
       </c>
       <c r="L289" s="26">
-        <v>40709</v>
+        <v>41957</v>
       </c>
       <c r="M289" t="s">
         <v>40</v>
       </c>
       <c r="N289" t="s">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="O289" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q289" t="s">
         <v>46</v>
@@ -19156,24 +18890,18 @@
         <v>47</v>
       </c>
       <c r="W289" t="s">
-        <v>47</v>
-      </c>
-      <c r="X289">
-        <v>8</v>
-      </c>
-      <c r="Y289">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="B290" s="26">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="C290" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="D290" t="s">
         <v>427</v>
@@ -19191,16 +18919,16 @@
         <v>374</v>
       </c>
       <c r="K290" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="L290" s="26">
-        <v>42311</v>
+        <v>42051</v>
       </c>
       <c r="M290" t="s">
         <v>40</v>
       </c>
       <c r="N290" t="s">
-        <v>159</v>
+        <v>398</v>
       </c>
       <c r="O290" t="s">
         <v>240</v>
@@ -19220,13 +18948,13 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="B291" s="26">
-        <v>44936</v>
+        <v>44930</v>
       </c>
       <c r="C291" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
         <v>427</v>
@@ -19238,34 +18966,28 @@
         <v>6</v>
       </c>
       <c r="G291" t="s">
-        <v>721</v>
+        <v>443</v>
       </c>
       <c r="J291" t="s">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="K291" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="L291" s="26">
-        <v>42430</v>
+        <v>42630</v>
       </c>
       <c r="M291" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N291" t="s">
-        <v>159</v>
+        <v>398</v>
       </c>
       <c r="O291" t="s">
-        <v>239</v>
-      </c>
-      <c r="P291" t="s">
-        <v>723</v>
+        <v>240</v>
       </c>
       <c r="Q291" t="s">
-        <v>326</v>
-      </c>
-      <c r="R291" t="s">
-        <v>724</v>
+        <v>46</v>
       </c>
       <c r="T291" t="s">
         <v>46</v>
@@ -19279,72 +19001,78 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="B292" s="26">
-        <v>44959</v>
+        <v>44931</v>
       </c>
       <c r="C292" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="D292" t="s">
         <v>427</v>
       </c>
       <c r="E292" t="s">
-        <v>409</v>
+        <v>180</v>
       </c>
       <c r="F292">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G292" t="s">
-        <v>721</v>
+        <v>443</v>
       </c>
       <c r="J292" t="s">
-        <v>374</v>
-      </c>
-      <c r="K292" t="s">
-        <v>726</v>
+        <v>173</v>
+      </c>
+      <c r="K292" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="L292" s="26">
-        <v>42329</v>
+        <v>41903</v>
       </c>
       <c r="M292" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N292" t="s">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="O292" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="P292" t="s">
-        <v>727</v>
+        <v>251</v>
       </c>
       <c r="Q292" t="s">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="R292" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="T292" t="s">
         <v>46</v>
       </c>
       <c r="V292" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W292" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X292">
+        <v>3</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="B293" s="26">
-        <v>44959</v>
+        <v>44931</v>
       </c>
       <c r="C293" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="D293" t="s">
         <v>427</v>
@@ -19353,60 +19081,60 @@
         <v>180</v>
       </c>
       <c r="F293">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G293" t="s">
-        <v>721</v>
+        <v>443</v>
       </c>
       <c r="J293" t="s">
-        <v>374</v>
-      </c>
-      <c r="K293" s="20" t="s">
-        <v>730</v>
+        <v>173</v>
       </c>
       <c r="L293" s="26">
-        <v>42653</v>
+        <v>42616</v>
       </c>
       <c r="M293" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N293" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="O293" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="P293" t="s">
+        <v>708</v>
       </c>
       <c r="Q293" t="s">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="R293" t="s">
-        <v>79</v>
-      </c>
-      <c r="S293" t="s">
-        <v>413</v>
+        <v>709</v>
       </c>
       <c r="T293" t="s">
-        <v>47</v>
-      </c>
-      <c r="U293" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="V293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W293" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X293">
+        <v>4</v>
+      </c>
+      <c r="Y293">
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>760</v>
+        <v>710</v>
       </c>
       <c r="B294" s="26">
-        <v>44959</v>
+        <v>44931</v>
       </c>
       <c r="C294" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D294" t="s">
         <v>427</v>
@@ -19415,43 +19143,34 @@
         <v>180</v>
       </c>
       <c r="F294">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G294" t="s">
-        <v>721</v>
+        <v>428</v>
       </c>
       <c r="J294" t="s">
-        <v>374</v>
-      </c>
-      <c r="K294" s="20" t="s">
-        <v>731</v>
+        <v>173</v>
+      </c>
+      <c r="K294" t="s">
+        <v>711</v>
       </c>
       <c r="L294" s="26">
-        <v>41732</v>
+        <v>41024</v>
       </c>
       <c r="M294" t="s">
         <v>40</v>
       </c>
       <c r="N294" t="s">
-        <v>732</v>
+        <v>398</v>
       </c>
       <c r="O294" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q294" t="s">
-        <v>47</v>
-      </c>
-      <c r="R294" t="s">
-        <v>243</v>
-      </c>
-      <c r="S294" t="s">
-        <v>413</v>
+        <v>46</v>
       </c>
       <c r="T294" t="s">
-        <v>47</v>
-      </c>
-      <c r="U294" t="s">
-        <v>619</v>
+        <v>46</v>
       </c>
       <c r="V294" t="s">
         <v>47</v>
@@ -19462,13 +19181,13 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="B295" s="26">
-        <v>44960</v>
+        <v>44932</v>
       </c>
       <c r="C295" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
         <v>427</v>
@@ -19477,60 +19196,54 @@
         <v>180</v>
       </c>
       <c r="F295">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G295" t="s">
-        <v>721</v>
+        <v>443</v>
       </c>
       <c r="J295" t="s">
         <v>374</v>
       </c>
       <c r="K295" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="L295" s="26">
-        <v>42143</v>
+        <v>42490</v>
       </c>
       <c r="M295" t="s">
         <v>30</v>
       </c>
       <c r="N295" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="O295" t="s">
         <v>240</v>
       </c>
       <c r="Q295" t="s">
-        <v>47</v>
-      </c>
-      <c r="R295" t="s">
-        <v>611</v>
+        <v>46</v>
       </c>
       <c r="T295" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="U295" t="s">
+        <v>265</v>
       </c>
       <c r="V295" t="s">
         <v>47</v>
       </c>
       <c r="W295" t="s">
-        <v>47</v>
-      </c>
-      <c r="X295">
-        <v>5</v>
-      </c>
-      <c r="Y295">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="B296" s="26">
-        <v>44961</v>
+        <v>44936</v>
       </c>
       <c r="C296" t="s">
-        <v>371</v>
+        <v>715</v>
       </c>
       <c r="D296" t="s">
         <v>427</v>
@@ -19539,28 +19252,28 @@
         <v>180</v>
       </c>
       <c r="F296">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G296" t="s">
-        <v>721</v>
+        <v>443</v>
       </c>
       <c r="J296" t="s">
-        <v>374</v>
+        <v>173</v>
       </c>
       <c r="K296" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="L296" s="26">
-        <v>42259</v>
+        <v>42504</v>
       </c>
       <c r="M296" t="s">
         <v>30</v>
       </c>
       <c r="N296" t="s">
-        <v>737</v>
+        <v>398</v>
       </c>
       <c r="O296" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q296" t="s">
         <v>46</v>
@@ -19572,21 +19285,15 @@
         <v>47</v>
       </c>
       <c r="W296" t="s">
-        <v>47</v>
-      </c>
-      <c r="X296">
-        <v>5</v>
-      </c>
-      <c r="Y296">
-        <v>1.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="B297" s="26">
-        <v>44963</v>
+        <v>44936</v>
       </c>
       <c r="C297" t="s">
         <v>415</v>
@@ -19598,25 +19305,22 @@
         <v>180</v>
       </c>
       <c r="F297">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G297" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="J297" t="s">
-        <v>374</v>
-      </c>
-      <c r="K297" t="s">
-        <v>739</v>
+        <v>173</v>
       </c>
       <c r="L297" s="26">
-        <v>42463</v>
+        <v>40709</v>
       </c>
       <c r="M297" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N297" t="s">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="O297" t="s">
         <v>240</v>
@@ -19631,18 +19335,24 @@
         <v>47</v>
       </c>
       <c r="W297" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X297">
+        <v>8</v>
+      </c>
+      <c r="Y297">
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="B298" s="26">
-        <v>44966</v>
+        <v>44936</v>
       </c>
       <c r="C298" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D298" t="s">
         <v>427</v>
@@ -19654,25 +19364,25 @@
         <v>7</v>
       </c>
       <c r="G298" t="s">
-        <v>721</v>
+        <v>443</v>
       </c>
       <c r="J298" t="s">
         <v>374</v>
       </c>
       <c r="K298" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="L298" s="26">
-        <v>42399</v>
+        <v>42311</v>
       </c>
       <c r="M298" t="s">
         <v>40</v>
       </c>
       <c r="N298" t="s">
-        <v>287</v>
+        <v>159</v>
       </c>
       <c r="O298" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Q298" t="s">
         <v>46</v>
@@ -19689,13 +19399,13 @@
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="B299" s="26">
-        <v>44966</v>
+        <v>44936</v>
       </c>
       <c r="C299" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D299" t="s">
         <v>427</v>
@@ -19709,38 +19419,35 @@
       <c r="G299" t="s">
         <v>721</v>
       </c>
-      <c r="H299" t="s">
-        <v>340</v>
-      </c>
-      <c r="I299" t="s">
-        <v>743</v>
-      </c>
       <c r="J299" t="s">
         <v>374</v>
       </c>
       <c r="K299" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="L299" s="26">
-        <v>42449</v>
+        <v>42430</v>
       </c>
       <c r="M299" t="s">
         <v>30</v>
       </c>
       <c r="N299" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="O299" t="s">
-        <v>69</v>
+        <v>239</v>
+      </c>
+      <c r="P299" t="s">
+        <v>723</v>
       </c>
       <c r="Q299" t="s">
-        <v>46</v>
+        <v>326</v>
+      </c>
+      <c r="R299" t="s">
+        <v>724</v>
       </c>
       <c r="T299" t="s">
-        <v>47</v>
-      </c>
-      <c r="U299" t="s">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="V299" t="s">
         <v>47</v>
@@ -19751,22 +19458,22 @@
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="B300" s="26">
-        <v>44970</v>
+        <v>44959</v>
       </c>
       <c r="C300" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D300" t="s">
         <v>427</v>
       </c>
       <c r="E300" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="F300">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G300" t="s">
         <v>721</v>
@@ -19775,22 +19482,28 @@
         <v>374</v>
       </c>
       <c r="K300" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="L300" s="26">
-        <v>41843</v>
+        <v>42329</v>
       </c>
       <c r="M300" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N300" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="O300" t="s">
-        <v>69</v>
+        <v>239</v>
+      </c>
+      <c r="P300" t="s">
+        <v>727</v>
       </c>
       <c r="Q300" t="s">
-        <v>46</v>
+        <v>326</v>
+      </c>
+      <c r="R300" t="s">
+        <v>728</v>
       </c>
       <c r="T300" t="s">
         <v>46</v>
@@ -19799,24 +19512,18 @@
         <v>47</v>
       </c>
       <c r="W300" t="s">
-        <v>47</v>
-      </c>
-      <c r="X300">
-        <v>8</v>
-      </c>
-      <c r="Y300">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="B301" s="26">
-        <v>44973</v>
+        <v>44959</v>
       </c>
       <c r="C301" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D301" t="s">
         <v>427</v>
@@ -19825,7 +19532,7 @@
         <v>180</v>
       </c>
       <c r="F301">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G301" t="s">
         <v>721</v>
@@ -19833,32 +19540,35 @@
       <c r="J301" t="s">
         <v>374</v>
       </c>
-      <c r="K301" t="s">
-        <v>748</v>
+      <c r="K301" s="20" t="s">
+        <v>730</v>
       </c>
       <c r="L301" s="26">
-        <v>41923</v>
+        <v>42653</v>
       </c>
       <c r="M301" t="s">
         <v>40</v>
       </c>
       <c r="N301" t="s">
-        <v>749</v>
+        <v>159</v>
       </c>
       <c r="O301" t="s">
-        <v>53</v>
-      </c>
-      <c r="P301" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="Q301" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="R301" t="s">
-        <v>750</v>
+        <v>79</v>
+      </c>
+      <c r="S301" t="s">
+        <v>413</v>
       </c>
       <c r="T301" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="U301" t="s">
+        <v>215</v>
       </c>
       <c r="V301" t="s">
         <v>46</v>
@@ -19869,13 +19579,13 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B302" s="26">
-        <v>44980</v>
+        <v>44959</v>
       </c>
       <c r="C302" t="s">
-        <v>752</v>
+        <v>401</v>
       </c>
       <c r="D302" t="s">
         <v>427</v>
@@ -19892,23 +19602,35 @@
       <c r="J302" t="s">
         <v>374</v>
       </c>
+      <c r="K302" s="20" t="s">
+        <v>731</v>
+      </c>
       <c r="L302" s="26">
-        <v>42014</v>
+        <v>41732</v>
       </c>
       <c r="M302" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N302" t="s">
-        <v>94</v>
+        <v>732</v>
       </c>
       <c r="O302" t="s">
         <v>69</v>
       </c>
       <c r="Q302" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="R302" t="s">
+        <v>243</v>
+      </c>
+      <c r="S302" t="s">
+        <v>413</v>
       </c>
       <c r="T302" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="U302" t="s">
+        <v>619</v>
       </c>
       <c r="V302" t="s">
         <v>47</v>
@@ -19919,13 +19641,13 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="B303" s="26">
-        <v>44982</v>
+        <v>44960</v>
       </c>
       <c r="C303" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D303" t="s">
         <v>427</v>
@@ -19943,13 +19665,13 @@
         <v>374</v>
       </c>
       <c r="K303" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="L303" s="26">
-        <v>42080</v>
+        <v>42143</v>
       </c>
       <c r="M303" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N303" t="s">
         <v>287</v>
@@ -19970,18 +19692,24 @@
         <v>47</v>
       </c>
       <c r="W303" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="X303">
+        <v>5</v>
+      </c>
+      <c r="Y303">
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="B304" s="26">
-        <v>44985</v>
+        <v>44961</v>
       </c>
       <c r="C304" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="D304" t="s">
         <v>427</v>
@@ -19998,17 +19726,17 @@
       <c r="J304" t="s">
         <v>374</v>
       </c>
-      <c r="K304" s="20" t="s">
-        <v>756</v>
+      <c r="K304" t="s">
+        <v>736</v>
       </c>
       <c r="L304" s="26">
-        <v>42372</v>
+        <v>42259</v>
       </c>
       <c r="M304" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N304" t="s">
-        <v>94</v>
+        <v>737</v>
       </c>
       <c r="O304" t="s">
         <v>69</v>
@@ -20020,9 +19748,460 @@
         <v>46</v>
       </c>
       <c r="V304" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W304" t="s">
+        <v>47</v>
+      </c>
+      <c r="X304">
+        <v>5</v>
+      </c>
+      <c r="Y304">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>738</v>
+      </c>
+      <c r="B305" s="26">
+        <v>44963</v>
+      </c>
+      <c r="C305" t="s">
+        <v>415</v>
+      </c>
+      <c r="D305" t="s">
+        <v>427</v>
+      </c>
+      <c r="E305" t="s">
+        <v>180</v>
+      </c>
+      <c r="F305">
+        <v>6</v>
+      </c>
+      <c r="G305" t="s">
+        <v>443</v>
+      </c>
+      <c r="J305" t="s">
+        <v>374</v>
+      </c>
+      <c r="K305" t="s">
+        <v>739</v>
+      </c>
+      <c r="L305" s="26">
+        <v>42463</v>
+      </c>
+      <c r="M305" t="s">
+        <v>30</v>
+      </c>
+      <c r="N305" t="s">
+        <v>94</v>
+      </c>
+      <c r="O305" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>46</v>
+      </c>
+      <c r="T305" t="s">
+        <v>46</v>
+      </c>
+      <c r="V305" t="s">
+        <v>47</v>
+      </c>
+      <c r="W305" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>740</v>
+      </c>
+      <c r="B306" s="26">
+        <v>44966</v>
+      </c>
+      <c r="C306" t="s">
+        <v>401</v>
+      </c>
+      <c r="D306" t="s">
+        <v>427</v>
+      </c>
+      <c r="E306" t="s">
+        <v>180</v>
+      </c>
+      <c r="F306">
+        <v>7</v>
+      </c>
+      <c r="G306" t="s">
+        <v>721</v>
+      </c>
+      <c r="J306" t="s">
+        <v>374</v>
+      </c>
+      <c r="K306" t="s">
+        <v>741</v>
+      </c>
+      <c r="L306" s="26">
+        <v>42399</v>
+      </c>
+      <c r="M306" t="s">
+        <v>40</v>
+      </c>
+      <c r="N306" t="s">
+        <v>287</v>
+      </c>
+      <c r="O306" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>46</v>
+      </c>
+      <c r="T306" t="s">
+        <v>46</v>
+      </c>
+      <c r="V306" t="s">
+        <v>47</v>
+      </c>
+      <c r="W306" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>742</v>
+      </c>
+      <c r="B307" s="26">
+        <v>44966</v>
+      </c>
+      <c r="C307" t="s">
+        <v>401</v>
+      </c>
+      <c r="D307" t="s">
+        <v>427</v>
+      </c>
+      <c r="E307" t="s">
+        <v>180</v>
+      </c>
+      <c r="F307">
+        <v>6</v>
+      </c>
+      <c r="G307" t="s">
+        <v>721</v>
+      </c>
+      <c r="H307" t="s">
+        <v>340</v>
+      </c>
+      <c r="I307" t="s">
+        <v>743</v>
+      </c>
+      <c r="J307" t="s">
+        <v>374</v>
+      </c>
+      <c r="K307" t="s">
+        <v>744</v>
+      </c>
+      <c r="L307" s="26">
+        <v>42449</v>
+      </c>
+      <c r="M307" t="s">
+        <v>30</v>
+      </c>
+      <c r="N307" t="s">
+        <v>94</v>
+      </c>
+      <c r="O307" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>46</v>
+      </c>
+      <c r="T307" t="s">
+        <v>47</v>
+      </c>
+      <c r="U307" t="s">
+        <v>265</v>
+      </c>
+      <c r="V307" t="s">
+        <v>47</v>
+      </c>
+      <c r="W307" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>745</v>
+      </c>
+      <c r="B308" s="26">
+        <v>44970</v>
+      </c>
+      <c r="C308" t="s">
+        <v>415</v>
+      </c>
+      <c r="D308" t="s">
+        <v>427</v>
+      </c>
+      <c r="E308" t="s">
+        <v>180</v>
+      </c>
+      <c r="F308">
+        <v>8</v>
+      </c>
+      <c r="G308" t="s">
+        <v>721</v>
+      </c>
+      <c r="J308" t="s">
+        <v>374</v>
+      </c>
+      <c r="K308" t="s">
+        <v>746</v>
+      </c>
+      <c r="L308" s="26">
+        <v>41843</v>
+      </c>
+      <c r="M308" t="s">
+        <v>40</v>
+      </c>
+      <c r="N308" t="s">
+        <v>94</v>
+      </c>
+      <c r="O308" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>46</v>
+      </c>
+      <c r="T308" t="s">
+        <v>46</v>
+      </c>
+      <c r="V308" t="s">
+        <v>47</v>
+      </c>
+      <c r="W308" t="s">
+        <v>47</v>
+      </c>
+      <c r="X308">
+        <v>8</v>
+      </c>
+      <c r="Y308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>747</v>
+      </c>
+      <c r="B309" s="26">
+        <v>44973</v>
+      </c>
+      <c r="C309" t="s">
+        <v>401</v>
+      </c>
+      <c r="D309" t="s">
+        <v>427</v>
+      </c>
+      <c r="E309" t="s">
+        <v>180</v>
+      </c>
+      <c r="F309">
+        <v>8</v>
+      </c>
+      <c r="G309" t="s">
+        <v>721</v>
+      </c>
+      <c r="J309" t="s">
+        <v>374</v>
+      </c>
+      <c r="K309" t="s">
+        <v>748</v>
+      </c>
+      <c r="L309" s="26">
+        <v>41923</v>
+      </c>
+      <c r="M309" t="s">
+        <v>40</v>
+      </c>
+      <c r="N309" t="s">
+        <v>749</v>
+      </c>
+      <c r="O309" t="s">
+        <v>53</v>
+      </c>
+      <c r="P309" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>47</v>
+      </c>
+      <c r="R309" t="s">
+        <v>750</v>
+      </c>
+      <c r="T309" t="s">
+        <v>46</v>
+      </c>
+      <c r="V309" t="s">
+        <v>46</v>
+      </c>
+      <c r="W309" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>751</v>
+      </c>
+      <c r="B310" s="26">
+        <v>44980</v>
+      </c>
+      <c r="C310" t="s">
+        <v>752</v>
+      </c>
+      <c r="D310" t="s">
+        <v>427</v>
+      </c>
+      <c r="E310" t="s">
+        <v>180</v>
+      </c>
+      <c r="F310">
+        <v>8</v>
+      </c>
+      <c r="G310" t="s">
+        <v>721</v>
+      </c>
+      <c r="J310" t="s">
+        <v>374</v>
+      </c>
+      <c r="L310" s="26">
+        <v>42014</v>
+      </c>
+      <c r="M310" t="s">
+        <v>30</v>
+      </c>
+      <c r="N310" t="s">
+        <v>94</v>
+      </c>
+      <c r="O310" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>46</v>
+      </c>
+      <c r="T310" t="s">
+        <v>46</v>
+      </c>
+      <c r="V310" t="s">
+        <v>47</v>
+      </c>
+      <c r="W310" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>753</v>
+      </c>
+      <c r="B311" s="26">
+        <v>44982</v>
+      </c>
+      <c r="C311" t="s">
+        <v>401</v>
+      </c>
+      <c r="D311" t="s">
+        <v>427</v>
+      </c>
+      <c r="E311" t="s">
+        <v>180</v>
+      </c>
+      <c r="F311">
+        <v>7</v>
+      </c>
+      <c r="G311" t="s">
+        <v>721</v>
+      </c>
+      <c r="J311" t="s">
+        <v>374</v>
+      </c>
+      <c r="K311" t="s">
+        <v>754</v>
+      </c>
+      <c r="L311" s="26">
+        <v>42080</v>
+      </c>
+      <c r="M311" t="s">
+        <v>40</v>
+      </c>
+      <c r="N311" t="s">
+        <v>287</v>
+      </c>
+      <c r="O311" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>47</v>
+      </c>
+      <c r="R311" t="s">
+        <v>611</v>
+      </c>
+      <c r="T311" t="s">
+        <v>46</v>
+      </c>
+      <c r="V311" t="s">
+        <v>47</v>
+      </c>
+      <c r="W311" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>755</v>
+      </c>
+      <c r="B312" s="26">
+        <v>44985</v>
+      </c>
+      <c r="C312" t="s">
+        <v>401</v>
+      </c>
+      <c r="D312" t="s">
+        <v>427</v>
+      </c>
+      <c r="E312" t="s">
+        <v>180</v>
+      </c>
+      <c r="F312">
+        <v>7</v>
+      </c>
+      <c r="G312" t="s">
+        <v>721</v>
+      </c>
+      <c r="J312" t="s">
+        <v>374</v>
+      </c>
+      <c r="K312" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="L312" s="26">
+        <v>42372</v>
+      </c>
+      <c r="M312" t="s">
+        <v>40</v>
+      </c>
+      <c r="N312" t="s">
+        <v>94</v>
+      </c>
+      <c r="O312" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>46</v>
+      </c>
+      <c r="T312" t="s">
+        <v>46</v>
+      </c>
+      <c r="V312" t="s">
+        <v>46</v>
+      </c>
+      <c r="W312" t="s">
         <v>46</v>
       </c>
     </row>

--- a/master demographics log.xlsx
+++ b/master demographics log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisabeth/Desktop/UMASS/BKonline data/BK-Online-Replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3F545-503B-E549-BB86-D5DBB781915E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9370A6-1FD8-4D4B-AFC8-76B5881287AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="26120" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="766">
   <si>
     <t>Experimenter</t>
   </si>
@@ -2896,9 +2896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L264" sqref="L264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17477,6 +17477,12 @@
       <c r="F260">
         <v>5</v>
       </c>
+      <c r="H260" t="s">
+        <v>340</v>
+      </c>
+      <c r="I260" t="s">
+        <v>433</v>
+      </c>
       <c r="J260" t="s">
         <v>374</v>
       </c>
@@ -17546,6 +17552,12 @@
       </c>
       <c r="F262">
         <v>5</v>
+      </c>
+      <c r="H262" t="s">
+        <v>340</v>
+      </c>
+      <c r="I262" t="s">
+        <v>433</v>
       </c>
       <c r="J262" t="s">
         <v>374</v>
